--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -258,7 +258,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,23 +266,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,10 +291,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1339,273 +1340,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7C4E52B-A0DC-4F7C-875C-A6BEECF97345}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077DD9E2-E764-4B64-9E81-581050EB18AB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23E8A2A-62E5-4F1C-BA43-099040D2976E}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Marito</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,13 +454,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -459,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -479,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -499,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -519,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -539,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -559,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -579,19 +588,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -599,19 +608,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -619,19 +628,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -639,19 +648,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -659,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -679,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -699,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -719,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -739,19 +748,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -759,19 +768,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -779,19 +788,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -799,19 +808,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -819,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -839,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -859,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -899,19 +908,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -919,19 +928,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -939,19 +948,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -959,19 +968,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -979,19 +988,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -999,19 +1008,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1019,19 +1028,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1039,19 +1048,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1059,19 +1068,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1079,19 +1088,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1099,19 +1108,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1119,19 +1128,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1139,19 +1148,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1159,19 +1168,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1179,19 +1188,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1199,19 +1208,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1219,19 +1228,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1239,19 +1248,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1259,19 +1268,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1279,19 +1288,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1299,19 +1308,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1319,21 +1328,41 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Marito</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -218,7 +242,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -292,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +326,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -454,13 +478,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -468,19 +492,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -488,19 +512,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -508,19 +532,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -528,19 +552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -548,16 +572,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -577,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -588,16 +612,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -608,16 +632,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -628,16 +652,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -648,16 +672,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -668,16 +692,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -688,16 +712,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -708,16 +732,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -728,16 +752,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -748,16 +772,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -768,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -788,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -808,16 +832,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -828,16 +852,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -848,16 +872,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -868,16 +892,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -888,16 +912,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -908,19 +932,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -928,19 +952,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -948,19 +972,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -968,19 +992,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -988,16 +1012,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
@@ -1008,7 +1032,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -1017,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
@@ -1028,16 +1052,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
@@ -1048,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -1068,16 +1092,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -1088,16 +1112,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -1108,16 +1132,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
@@ -1128,16 +1152,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
@@ -1148,16 +1172,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
@@ -1168,16 +1192,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>53</v>
@@ -1188,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1208,16 +1232,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>57</v>
@@ -1228,16 +1252,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>59</v>
@@ -1248,16 +1272,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -1268,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -1288,16 +1312,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1308,16 +1332,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1328,16 +1352,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>69</v>
@@ -1348,21 +1372,101 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="84">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -316,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -328,6 +334,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,25 +356,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -389,1085 +402,1250 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -334,7 +334,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="85">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.3.4</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.3.4</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -403,1249 +406,1249 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="87">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -325,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -854,7 +860,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -946,7 +952,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1061,7 +1067,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1107,7 +1113,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1124,19 +1130,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1147,19 +1153,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1170,19 +1176,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1193,19 +1199,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1216,19 +1222,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1239,19 +1245,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1262,19 +1268,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1285,19 +1291,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1308,19 +1314,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1331,19 +1337,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1354,19 +1360,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1377,19 +1383,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1400,19 +1406,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1452,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1469,19 +1475,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1492,19 +1498,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1521,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1633,21 +1639,67 @@
         <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -331,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1153,19 +1177,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1176,19 +1200,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1199,19 +1223,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1222,19 +1246,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1245,19 +1269,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1268,19 +1292,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1291,19 +1315,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1314,19 +1338,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1337,19 +1361,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1360,19 +1384,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1383,19 +1407,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1430,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1453,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1476,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1499,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1522,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1545,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1568,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1591,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1614,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1637,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1660,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1683,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1682,24 +1706,208 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="97">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -191,13 +197,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -355,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -700,7 +706,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -792,7 +798,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -907,7 +913,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -999,7 +1005,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1114,7 +1120,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1160,7 +1166,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1269,19 +1275,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1292,19 +1298,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1315,19 +1321,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1344,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1367,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1390,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1413,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1436,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1459,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1482,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1505,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1528,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1574,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1893,21 +1899,67 @@
         <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="99">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -361,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -614,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -982,7 +988,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1005,7 +1011,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1143,7 +1149,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1189,7 +1195,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -1298,19 +1304,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1327,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1350,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1373,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1396,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1419,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1442,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1945,21 +1951,67 @@
         <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -367,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1172,7 +1178,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1218,7 +1224,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -1327,19 +1333,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1356,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1540,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -1997,21 +2003,67 @@
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Marito</t>
@@ -373,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,19 +672,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -689,16 +695,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -712,16 +718,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -735,16 +741,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -758,7 +764,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -767,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -790,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -804,7 +810,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -813,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -827,16 +833,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -859,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -873,7 +879,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -882,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -896,7 +902,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -905,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -928,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -942,16 +948,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -965,7 +971,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -974,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -988,16 +994,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1011,7 +1017,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1020,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1043,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1066,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1080,7 +1086,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1089,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1112,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1135,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1149,7 +1155,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1158,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1172,7 +1178,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1181,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1195,16 +1201,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1241,16 +1247,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1264,7 +1270,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1273,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1287,7 +1293,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1296,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1319,7 +1325,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1342,7 +1348,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1356,19 +1362,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1379,16 +1385,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>40</v>
@@ -1402,16 +1408,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>42</v>
@@ -1425,16 +1431,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -1457,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>46</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>48</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -1503,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>50</v>
@@ -1517,16 +1523,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>52</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -1549,7 +1555,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>54</v>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>55</v>
@@ -1572,7 +1578,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>56</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>57</v>
@@ -1595,7 +1601,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>58</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -1618,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
@@ -1632,16 +1638,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>62</v>
@@ -1655,7 +1661,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -1664,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>64</v>
@@ -1678,16 +1684,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>66</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>67</v>
@@ -1710,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>68</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>69</v>
@@ -1733,7 +1739,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>70</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -1756,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>72</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>73</v>
@@ -1779,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>74</v>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>75</v>
@@ -1802,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>76</v>
@@ -1816,7 +1822,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>77</v>
@@ -1825,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>78</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>79</v>
@@ -1848,7 +1854,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>80</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>81</v>
@@ -1871,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>82</v>
@@ -1885,16 +1891,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>84</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
@@ -1917,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>86</v>
@@ -1931,16 +1937,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>88</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>89</v>
@@ -1963,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>90</v>
@@ -1977,7 +1983,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>91</v>
@@ -1986,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>92</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>93</v>
@@ -2009,7 +2015,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>94</v>
@@ -2023,7 +2029,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
@@ -2032,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>96</v>
@@ -2049,21 +2055,44 @@
         <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Marito</t>
@@ -379,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -672,19 +666,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -695,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -718,16 +712,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -741,16 +735,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -764,7 +758,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -773,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -787,7 +781,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -796,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -810,7 +804,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -819,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -833,16 +827,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -856,7 +850,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -865,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -879,7 +873,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -888,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -902,7 +896,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -911,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -925,7 +919,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -934,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -948,16 +942,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -980,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -994,16 +988,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1017,7 +1011,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1026,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1040,7 +1034,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1049,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1063,7 +1057,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1072,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1086,7 +1080,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1095,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1109,7 +1103,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1118,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1132,7 +1126,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1141,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1155,7 +1149,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1164,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1187,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1201,16 +1195,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1224,7 +1218,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1233,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1247,16 +1241,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1270,7 +1264,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1279,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1302,7 +1296,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1316,7 +1310,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1325,7 +1319,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1339,7 +1333,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1348,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1362,19 +1356,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1385,16 +1379,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>40</v>
@@ -1408,16 +1402,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>42</v>
@@ -1431,16 +1425,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -1463,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>46</v>
@@ -1477,7 +1471,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -1486,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>48</v>
@@ -1500,7 +1494,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -1509,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>50</v>
@@ -1523,16 +1517,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>52</v>
@@ -1546,7 +1540,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -1555,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>54</v>
@@ -1569,7 +1563,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>55</v>
@@ -1578,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>56</v>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>57</v>
@@ -1601,7 +1595,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>58</v>
@@ -1615,7 +1609,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -1624,7 +1618,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
@@ -1638,16 +1632,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>62</v>
@@ -1661,7 +1655,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -1670,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>64</v>
@@ -1684,16 +1678,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>66</v>
@@ -1707,7 +1701,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>67</v>
@@ -1716,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>68</v>
@@ -1730,7 +1724,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>69</v>
@@ -1739,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>70</v>
@@ -1753,7 +1747,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -1762,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>72</v>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>73</v>
@@ -1785,7 +1779,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>74</v>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>75</v>
@@ -1808,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>76</v>
@@ -1822,7 +1816,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>77</v>
@@ -1831,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>78</v>
@@ -1845,7 +1839,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>79</v>
@@ -1854,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>80</v>
@@ -1868,7 +1862,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>81</v>
@@ -1877,7 +1871,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>82</v>
@@ -1891,16 +1885,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>84</v>
@@ -1914,7 +1908,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
@@ -1923,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>86</v>
@@ -1937,16 +1931,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>88</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>89</v>
@@ -1969,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>90</v>
@@ -1983,7 +1977,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>91</v>
@@ -1992,7 +1986,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>92</v>
@@ -2006,7 +2000,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>93</v>
@@ -2015,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>94</v>
@@ -2029,7 +2023,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
@@ -2038,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>96</v>
@@ -2055,44 +2049,21 @@
         <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -379,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -793,7 +805,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -816,7 +828,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -862,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -885,7 +897,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -977,7 +989,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -1000,7 +1012,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1023,7 +1035,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1046,7 +1058,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1230,7 +1242,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -1253,7 +1265,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1276,7 +1288,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1299,7 +1311,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1385,19 +1397,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1420,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1443,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1466,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1489,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1512,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1535,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1558,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1581,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1604,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1627,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1650,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1673,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1696,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1719,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1742,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1765,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1788,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1811,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1834,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1857,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1880,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1903,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1926,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1949,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1972,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1995,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2018,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2041,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2064,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2075,24 +2087,116 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -453,63 +459,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -518,90 +524,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -610,21 +616,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -633,12 +639,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -647,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -656,21 +662,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -679,21 +685,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -702,44 +708,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -748,21 +754,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -771,12 +777,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -785,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -794,21 +800,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -817,21 +823,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -840,12 +846,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -854,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -863,21 +869,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -886,21 +892,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -909,21 +915,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -932,21 +938,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -955,21 +961,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -978,21 +984,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1001,21 +1007,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1024,12 +1030,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1038,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1047,21 +1053,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1070,21 +1076,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1093,21 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1116,21 +1122,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1139,21 +1145,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1162,21 +1168,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1185,21 +1191,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1208,21 +1214,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1231,21 +1237,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1254,21 +1260,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1277,12 +1283,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1291,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1300,21 +1306,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1323,21 +1329,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1346,21 +1352,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1369,21 +1375,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1392,21 +1398,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1415,21 +1421,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1438,44 +1444,44 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>42</v>
@@ -1484,21 +1490,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>44</v>
@@ -1507,12 +1513,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>45</v>
@@ -1521,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>46</v>
@@ -1530,21 +1536,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>48</v>
@@ -1553,21 +1559,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>50</v>
@@ -1576,12 +1582,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -1590,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>52</v>
@@ -1599,21 +1605,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>54</v>
@@ -1622,21 +1628,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -1645,21 +1651,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>58</v>
@@ -1668,21 +1674,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1691,21 +1697,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1714,21 +1720,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
@@ -1737,21 +1743,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
@@ -1760,12 +1766,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -1774,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -1783,21 +1789,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
@@ -1806,21 +1812,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -1829,21 +1835,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -1852,21 +1858,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
@@ -1875,21 +1881,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
@@ -1898,21 +1904,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
@@ -1921,21 +1927,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
@@ -1944,21 +1950,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
@@ -1967,21 +1973,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
@@ -1990,21 +1996,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2013,12 +2019,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -2027,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
@@ -2036,21 +2042,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
@@ -2059,21 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
@@ -2082,21 +2088,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2105,21 +2111,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -2128,21 +2134,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>100</v>
@@ -2151,21 +2157,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>102</v>
@@ -2174,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2182,22 +2188,45 @@
         <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="111">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Marito</t>
@@ -397,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -736,19 +742,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -759,16 +765,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -782,16 +788,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -805,16 +811,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -828,16 +834,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -851,7 +857,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -860,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -874,16 +880,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -897,7 +903,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -906,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -929,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -943,16 +949,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -966,7 +972,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -975,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -989,7 +995,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -998,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1021,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1035,7 +1041,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1044,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1058,16 +1064,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1090,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1104,16 +1110,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1136,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1159,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1182,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1196,7 +1202,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1205,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1219,7 +1225,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1228,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1251,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1274,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1288,7 +1294,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1297,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1311,16 +1317,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1343,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1357,16 +1363,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1389,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1412,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1435,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1449,7 +1455,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1458,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1472,19 +1478,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1495,16 +1501,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>44</v>
@@ -1518,16 +1524,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>46</v>
@@ -1541,16 +1547,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>48</v>
@@ -1564,16 +1570,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>50</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -1596,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>52</v>
@@ -1610,16 +1616,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>54</v>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
@@ -1642,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
@@ -1665,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>58</v>
@@ -1679,16 +1685,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>61</v>
@@ -1711,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1725,7 +1731,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
@@ -1734,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
@@ -1757,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
@@ -1771,7 +1777,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -1780,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -1794,16 +1800,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
@@ -1826,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -1863,7 +1869,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
@@ -1872,7 +1878,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
@@ -1895,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
@@ -1909,7 +1915,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
@@ -1918,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -1941,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
@@ -1955,7 +1961,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>83</v>
@@ -1964,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
@@ -1987,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
@@ -2010,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -2033,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
@@ -2047,16 +2053,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
@@ -2079,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
@@ -2093,16 +2099,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
@@ -2125,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -2139,7 +2145,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
@@ -2148,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>100</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
@@ -2171,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>102</v>
@@ -2185,7 +2191,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
@@ -2194,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
@@ -2211,21 +2217,44 @@
         <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
     </row>
